--- a/personal expense tracker.xlsx
+++ b/personal expense tracker.xlsx
@@ -8,13 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d336cd9d324feae/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18C795FF-AE0D-4ECD-9BEF-98438A491113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{18C795FF-AE0D-4ECD-9BEF-98438A491113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D232364-D5D8-400B-9017-1B340086F75E}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="13296" windowHeight="12336" xr2:uid="{86F6E9F3-657B-4068-ABE3-4487965E24A9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{86F6E9F3-657B-4068-ABE3-4487965E24A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$20</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$20</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$20</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$2:$D$20</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -149,6 +158,4850 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$5:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>planned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> $3,050.00 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$7:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>gas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>rent</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>electric</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>car note</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>insurance</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>groceries</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>internet</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>water</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>phone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-53C6-42F9-A520-776C7CCC1707}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$5:$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>actual</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> $4,000.00 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$7:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>gas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>rent</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>electric</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>car note</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>insurance</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>groceries</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>internet</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>water</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>phone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-53C6-42F9-A520-776C7CCC1707}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$5:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>diff</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> $950.00 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$7:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>gas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>rent</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>electric</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>car note</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>insurance</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>groceries</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>internet</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>water</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>phone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$7:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-53C6-42F9-A520-776C7CCC1707}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1266695359"/>
+        <c:axId val="1266688159"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1266695359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1266688159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1266688159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1266695359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Actual</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gas</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rent</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>electric</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>car note</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>insurance</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>groceries</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>internet</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>water</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>phone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1835</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3F8-4732-B45D-4CBE6518FBA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Actual</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gas</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rent</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>electric</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>car note</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>insurance</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>groceries</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>internet</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>water</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>phone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E3F8-4732-B45D-4CBE6518FBA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Actual</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gas</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rent</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>electric</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>car note</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>insurance</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>groceries</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>internet</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>water</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>phone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>-150</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>2090</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E3F8-4732-B45D-4CBE6518FBA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>411480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{486C115D-D5C3-9B43-F552-F50A13FE1CA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B9CFAF-0418-2B3D-1E2B-8B1A9095B2E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,7 +5304,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,5 +5516,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>